--- a/raw_data/20200818_saline/20200818_Sensor1_Test_40.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_40.xlsx
@@ -1,1052 +1,1468 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CA4EA9-7193-412E-A222-19A30381FB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>35285.970157</v>
+        <v>35285.970157000003</v>
       </c>
       <c r="B2" s="1">
-        <v>9.801658</v>
+        <v>9.8016579999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>904.741000</v>
+        <v>904.74099999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.082000</v>
+        <v>-202.08199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>35296.022042</v>
+        <v>35296.022041999997</v>
       </c>
       <c r="G2" s="1">
-        <v>9.804451</v>
+        <v>9.8044510000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>921.777000</v>
+        <v>921.77700000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.207000</v>
+        <v>-171.20699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>35306.105213</v>
+        <v>35306.105213000003</v>
       </c>
       <c r="L2" s="1">
-        <v>9.807251</v>
+        <v>9.8072510000000008</v>
       </c>
       <c r="M2" s="1">
-        <v>945.446000</v>
+        <v>945.44600000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.106000</v>
+        <v>-121.10599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>35316.315888</v>
+        <v>35316.315887999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.810088</v>
+        <v>9.8100880000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>952.692000</v>
+        <v>952.69200000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.626000</v>
+        <v>-104.626</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>35326.527987</v>
+        <v>35326.527987000001</v>
       </c>
       <c r="V2" s="1">
-        <v>9.812924</v>
+        <v>9.8129240000000006</v>
       </c>
       <c r="W2" s="1">
-        <v>959.315000</v>
+        <v>959.31500000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.325600</v>
+        <v>-89.325599999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>35336.946989</v>
+        <v>35336.946988999996</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.815819</v>
+        <v>9.8158189999999994</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.510000</v>
+        <v>966.51</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.161400</v>
+        <v>-77.1614</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>35347.488422</v>
+        <v>35347.488422000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.818747</v>
+        <v>9.8187470000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.139000</v>
+        <v>971.13900000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.056400</v>
+        <v>-75.056399999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>35357.923796</v>
+        <v>35357.923796000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.821645</v>
+        <v>9.8216450000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.301000</v>
+        <v>978.30100000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.618400</v>
+        <v>-79.618399999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>35368.488044</v>
+        <v>35368.488043999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.824580</v>
+        <v>9.8245799999999992</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.345000</v>
+        <v>986.34500000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.090900</v>
+        <v>-91.090900000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>35379.157485</v>
+        <v>35379.157485000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.827544</v>
+        <v>9.8275439999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.127000</v>
+        <v>996.12699999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.771000</v>
+        <v>-108.771</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>35390.268889</v>
+        <v>35390.268888999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.830630</v>
+        <v>9.8306299999999993</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.410000</v>
+        <v>-124.41</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>35401.214118</v>
+        <v>35401.214118000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.833671</v>
+        <v>9.8336710000000007</v>
       </c>
       <c r="BF2" s="1">
-        <v>1042.700000</v>
+        <v>1042.7</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.415000</v>
+        <v>-196.41499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>35412.247597</v>
+        <v>35412.247597000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.836735</v>
+        <v>9.8367349999999991</v>
       </c>
       <c r="BK2" s="1">
-        <v>1108.930000</v>
+        <v>1108.93</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.724000</v>
+        <v>-313.72399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>35423.750803</v>
+        <v>35423.750803000003</v>
       </c>
       <c r="BO2" s="1">
         <v>9.839931</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.120000</v>
+        <v>-499.12</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>35434.125124</v>
+        <v>35434.125123999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.842813</v>
+        <v>9.8428129999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.510000</v>
+        <v>1338.51</v>
       </c>
       <c r="BV2" s="1">
-        <v>-703.326000</v>
+        <v>-703.32600000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>35445.100636</v>
+        <v>35445.100636000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.845861</v>
+        <v>9.8458609999999993</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1475.110000</v>
+        <v>1475.11</v>
       </c>
       <c r="CA2" s="1">
-        <v>-920.134000</v>
+        <v>-920.13400000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>35455.953559</v>
+        <v>35455.953559000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.848876</v>
+        <v>9.8488760000000006</v>
       </c>
       <c r="CE2" s="1">
-        <v>1834.470000</v>
+        <v>1834.47</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1436.070000</v>
+        <v>-1436.07</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>35286.351543</v>
+        <v>35286.351542999997</v>
       </c>
       <c r="B3" s="1">
-        <v>9.801764</v>
+        <v>9.8017640000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>904.427000</v>
+        <v>904.42700000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.256000</v>
+        <v>-202.256</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>35296.366297</v>
       </c>
       <c r="G3" s="1">
-        <v>9.804546</v>
+        <v>9.8045460000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>921.614000</v>
+        <v>921.61400000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.490000</v>
+        <v>-171.49</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>35306.521854</v>
+        <v>35306.521853999999</v>
       </c>
       <c r="L3" s="1">
-        <v>9.807367</v>
+        <v>9.8073669999999993</v>
       </c>
       <c r="M3" s="1">
-        <v>945.487000</v>
+        <v>945.48699999999997</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.581000</v>
+        <v>-121.581</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>35316.725057</v>
+        <v>35316.725057000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.810201</v>
+        <v>9.8102009999999993</v>
       </c>
       <c r="R3" s="1">
-        <v>952.684000</v>
+        <v>952.68399999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.676000</v>
+        <v>-104.676</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>35326.922343</v>
+        <v>35326.922342999998</v>
       </c>
       <c r="V3" s="1">
         <v>9.813034</v>
       </c>
       <c r="W3" s="1">
-        <v>959.326000</v>
+        <v>959.32600000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.234800</v>
+        <v>-89.234800000000007</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>35337.304101</v>
+        <v>35337.304101000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.815918</v>
+        <v>9.8159179999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.479000</v>
+        <v>966.47900000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.361600</v>
+        <v>-77.361599999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>35347.856951</v>
+        <v>35347.856951000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.818849</v>
+        <v>9.8188490000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.114000</v>
+        <v>971.11400000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.032900</v>
+        <v>-75.032899999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>35358.310665</v>
+        <v>35358.310664999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.821753</v>
+        <v>9.8217529999999993</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.298000</v>
+        <v>978.298</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.603500</v>
+        <v>-79.603499999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>35368.889343</v>
+        <v>35368.889343000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.824691</v>
+        <v>9.8246909999999996</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.331000</v>
+        <v>986.33100000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.115900</v>
+        <v>-91.115899999999996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>35379.577139</v>
+        <v>35379.577139000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.827660</v>
+        <v>9.8276599999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.130000</v>
+        <v>996.13</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>35390.665693</v>
+        <v>35390.665693000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.830740</v>
+        <v>9.8307400000000005</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.382000</v>
+        <v>-124.38200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>35401.602975</v>
+        <v>35401.602975000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.833779</v>
+        <v>9.8337789999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1042.710000</v>
+        <v>1042.71</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.425000</v>
+        <v>-196.42500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>35412.637440</v>
+        <v>35412.637439999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.836844</v>
+        <v>9.8368439999999993</v>
       </c>
       <c r="BK3" s="1">
-        <v>1108.870000</v>
+        <v>1108.8699999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.716000</v>
+        <v>-313.71600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>35424.473009</v>
+        <v>35424.473009000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.840131</v>
+        <v>9.8401309999999995</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-499.184000</v>
+        <v>-499.18400000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>35434.866148</v>
+        <v>35434.866148000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.843018</v>
+        <v>9.8430180000000007</v>
       </c>
       <c r="BU3" s="1">
-        <v>1338.460000</v>
+        <v>1338.46</v>
       </c>
       <c r="BV3" s="1">
-        <v>-703.276000</v>
+        <v>-703.27599999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>35445.287589</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.845913</v>
+        <v>9.8459129999999995</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1475.080000</v>
+        <v>1475.08</v>
       </c>
       <c r="CA3" s="1">
-        <v>-920.269000</v>
+        <v>-920.26900000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>35456.513542</v>
+        <v>35456.513542000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.849032</v>
+        <v>9.8490319999999993</v>
       </c>
       <c r="CE3" s="1">
-        <v>1833.340000</v>
+        <v>1833.34</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1436.520000</v>
+        <v>-1436.52</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>35286.786140</v>
+        <v>35286.786139999997</v>
       </c>
       <c r="B4" s="1">
-        <v>9.801885</v>
+        <v>9.8018850000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>904.396000</v>
+        <v>904.39599999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>-201.986000</v>
+        <v>-201.98599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>35296.789391</v>
+        <v>35296.789390999998</v>
       </c>
       <c r="G4" s="1">
-        <v>9.804664</v>
+        <v>9.8046640000000007</v>
       </c>
       <c r="H4" s="1">
-        <v>921.345000</v>
+        <v>921.34500000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.287000</v>
+        <v>-171.28700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>35306.867597</v>
+        <v>35306.867596999997</v>
       </c>
       <c r="L4" s="1">
-        <v>9.807463</v>
+        <v>9.8074630000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>945.406000</v>
+        <v>945.40599999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.623000</v>
+        <v>-121.623</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>35317.052912</v>
+        <v>35317.052911999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.810292</v>
+        <v>9.8102920000000005</v>
       </c>
       <c r="R4" s="1">
-        <v>952.629000</v>
+        <v>952.62900000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.623000</v>
+        <v>-104.623</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>35327.266034</v>
@@ -1055,2810 +1471,2810 @@
         <v>9.813129</v>
       </c>
       <c r="W4" s="1">
-        <v>959.311000</v>
+        <v>959.31100000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.235400</v>
+        <v>-89.235399999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>35337.649780</v>
+        <v>35337.64978</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.816014</v>
+        <v>9.8160139999999991</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.403000</v>
+        <v>966.40300000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.372000</v>
+        <v>-77.372</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>35348.200214</v>
+        <v>35348.200213999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.818945</v>
+        <v>9.8189449999999994</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.134000</v>
+        <v>971.13400000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.033700</v>
+        <v>-75.033699999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>35359.007055</v>
+        <v>35359.007055000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.821946</v>
+        <v>9.8219460000000005</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.302000</v>
+        <v>978.30200000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.610500</v>
+        <v>-79.610500000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>35369.610031</v>
+        <v>35369.610030999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.824892</v>
+        <v>9.8248920000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.342000</v>
+        <v>986.34199999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.118000</v>
+        <v>-91.117999999999995</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>35379.937195</v>
+        <v>35379.937194999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.827760</v>
+        <v>9.8277599999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.114000</v>
+        <v>996.11400000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.758000</v>
+        <v>-108.758</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>35391.023805</v>
+        <v>35391.023804999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.830840</v>
+        <v>9.8308400000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.410000</v>
+        <v>-124.41</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>35401.968495</v>
+        <v>35401.968495000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.833880</v>
+        <v>9.8338800000000006</v>
       </c>
       <c r="BF4" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.420000</v>
+        <v>-196.42</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>35413.318448</v>
+        <v>35413.318447999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.837033</v>
+        <v>9.8370329999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1108.900000</v>
+        <v>1108.9000000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.732000</v>
+        <v>-313.73200000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>35424.595490</v>
+        <v>35424.59549</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.840165</v>
+        <v>9.8401650000000007</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-499.128000</v>
+        <v>-499.12799999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>35434.988658</v>
+        <v>35434.988658000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.843052</v>
+        <v>9.8430520000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.390000</v>
+        <v>1338.39</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.290000</v>
+        <v>-703.29</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>35445.739446</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.846039</v>
+        <v>9.8460389999999993</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1475.000000</v>
+        <v>1475</v>
       </c>
       <c r="CA4" s="1">
-        <v>-920.324000</v>
+        <v>-920.32399999999996</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>35457.031888</v>
+        <v>35457.031887999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.849176</v>
+        <v>9.8491759999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1833.700000</v>
+        <v>1833.7</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1437.780000</v>
+        <v>-1437.78</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>35287.038008</v>
+        <v>35287.038008000003</v>
       </c>
       <c r="B5" s="1">
-        <v>9.801955</v>
+        <v>9.8019549999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>904.474000</v>
+        <v>904.47400000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.077000</v>
+        <v>-202.077</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>35297.053721</v>
+        <v>35297.053720999997</v>
       </c>
       <c r="G5" s="1">
-        <v>9.804737</v>
+        <v>9.8047369999999994</v>
       </c>
       <c r="H5" s="1">
-        <v>921.726000</v>
+        <v>921.726</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.410000</v>
+        <v>-171.41</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>35307.215755</v>
+        <v>35307.215754999997</v>
       </c>
       <c r="L5" s="1">
-        <v>9.807560</v>
+        <v>9.8075600000000005</v>
       </c>
       <c r="M5" s="1">
-        <v>945.373000</v>
+        <v>945.37300000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.502000</v>
+        <v>-121.502</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>35317.398128</v>
+        <v>35317.398128000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.810388</v>
+        <v>9.8103879999999997</v>
       </c>
       <c r="R5" s="1">
-        <v>952.666000</v>
+        <v>952.66600000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.598000</v>
+        <v>-104.598</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>35327.607777</v>
+        <v>35327.607776999997</v>
       </c>
       <c r="V5" s="1">
-        <v>9.813224</v>
+        <v>9.8132239999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>959.328000</v>
+        <v>959.32799999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.239300</v>
+        <v>-89.2393</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>35338.349172</v>
+        <v>35338.349172000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.816208</v>
+        <v>9.8162079999999996</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.480000</v>
+        <v>966.48</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.427000</v>
+        <v>-77.427000000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>35348.887638</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.819135</v>
+        <v>9.8191349999999993</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.159000</v>
+        <v>971.15899999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.997500</v>
+        <v>-74.997500000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>35359.357688</v>
+        <v>35359.357687999996</v>
       </c>
       <c r="AK5" s="1">
         <v>9.822044</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.296000</v>
+        <v>978.29600000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.614300</v>
+        <v>-79.6143</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>35369.995880</v>
+        <v>35369.995880000002</v>
       </c>
       <c r="AP5" s="1">
         <v>9.824999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.334000</v>
+        <v>986.33399999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.116700</v>
+        <v>-91.116699999999994</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>35380.298811</v>
+        <v>35380.298811000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.827861</v>
+        <v>9.8278610000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.109000</v>
+        <v>996.10900000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.742000</v>
+        <v>-108.742</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>35391.693373</v>
+        <v>35391.693373000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.831026</v>
+        <v>9.8310259999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.395000</v>
+        <v>-124.395</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>35402.645566</v>
+        <v>35402.645565999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.834068</v>
+        <v>9.8340680000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>1042.680000</v>
+        <v>1042.68</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.443000</v>
+        <v>-196.44300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>35413.797615</v>
+        <v>35413.797615000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.837166</v>
+        <v>9.8371659999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1108.910000</v>
+        <v>1108.9100000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.733000</v>
+        <v>-313.733</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>35425.018081</v>
+        <v>35425.018081000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.840283</v>
+        <v>9.8402829999999994</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-499.150000</v>
+        <v>-499.15</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>35435.398355</v>
+        <v>35435.398354999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.843166</v>
+        <v>9.8431660000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.370000</v>
+        <v>1338.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.281000</v>
+        <v>-703.28099999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>35446.195764</v>
+        <v>35446.195763999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.846165</v>
+        <v>9.8461649999999992</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1475.130000</v>
+        <v>1475.13</v>
       </c>
       <c r="CA5" s="1">
-        <v>-920.381000</v>
+        <v>-920.38099999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>35457.550181</v>
+        <v>35457.550180999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.849319</v>
+        <v>9.8493189999999995</v>
       </c>
       <c r="CE5" s="1">
-        <v>1834.990000</v>
+        <v>1834.99</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1437.360000</v>
+        <v>-1437.36</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>35287.375320</v>
+        <v>35287.375319999999</v>
       </c>
       <c r="B6" s="1">
-        <v>9.802049</v>
+        <v>9.8020490000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>904.346000</v>
+        <v>904.346</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.110000</v>
+        <v>-202.11</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>35297.400460</v>
+        <v>35297.400459999997</v>
       </c>
       <c r="G6" s="1">
-        <v>9.804833</v>
+        <v>9.8048330000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>921.652000</v>
+        <v>921.65200000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.190000</v>
+        <v>-171.19</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>35307.560971</v>
+        <v>35307.560970999999</v>
       </c>
       <c r="L6" s="1">
-        <v>9.807656</v>
+        <v>9.8076559999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>945.442000</v>
+        <v>945.44200000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.764000</v>
+        <v>-121.764</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>35317.748303</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.810486</v>
+        <v>9.8104859999999992</v>
       </c>
       <c r="R6" s="1">
-        <v>952.695000</v>
+        <v>952.69500000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.570000</v>
+        <v>-104.57</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>35328.294737</v>
+        <v>35328.294736999997</v>
       </c>
       <c r="V6" s="1">
-        <v>9.813415</v>
+        <v>9.8134150000000009</v>
       </c>
       <c r="W6" s="1">
-        <v>959.382000</v>
+        <v>959.38199999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.320500</v>
+        <v>-89.320499999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>35338.697331</v>
+        <v>35338.697331000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.816305</v>
+        <v>9.8163049999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.463000</v>
+        <v>966.46299999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.336300</v>
+        <v>-77.336299999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>35349.236325</v>
+        <v>35349.236324999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.819232</v>
+        <v>9.8192319999999995</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.158000</v>
+        <v>971.15800000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.004900</v>
+        <v>-75.004900000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>35359.705910</v>
+        <v>35359.705909999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.822141</v>
+        <v>9.8221410000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.299000</v>
+        <v>978.29899999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.615600</v>
+        <v>-79.615600000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>35370.405578</v>
+        <v>35370.405577999998</v>
       </c>
       <c r="AP6" s="1">
         <v>9.825113</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.328000</v>
+        <v>986.32799999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.123200</v>
+        <v>-91.123199999999997</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>35380.966394</v>
+        <v>35380.966394000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.828046</v>
+        <v>9.8280460000000005</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.129000</v>
+        <v>996.12900000000002</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.736000</v>
+        <v>-108.736</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>35392.103083</v>
+        <v>35392.103083000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.831140</v>
+        <v>9.8311399999999995</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.393000</v>
+        <v>-124.393</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>35403.071102</v>
+        <v>35403.071102000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.834186</v>
+        <v>9.8341860000000008</v>
       </c>
       <c r="BF6" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.429000</v>
+        <v>-196.429</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>35414.169615</v>
+        <v>35414.169614999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.837269</v>
+        <v>9.8372689999999992</v>
       </c>
       <c r="BK6" s="1">
-        <v>1108.920000</v>
+        <v>1108.92</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.731000</v>
+        <v>-313.73099999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>35425.415375</v>
+        <v>35425.415374999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.840393</v>
+        <v>9.8403930000000006</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-499.141000</v>
+        <v>-499.14100000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>35435.832882</v>
+        <v>35435.832882000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.843287</v>
+        <v>9.8432870000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.250000</v>
+        <v>1338.25</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.245000</v>
+        <v>-703.245</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>35446.645667</v>
+        <v>35446.645666999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.846290</v>
+        <v>9.8462899999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1475.070000</v>
+        <v>1475.07</v>
       </c>
       <c r="CA6" s="1">
-        <v>-920.367000</v>
+        <v>-920.36699999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>35458.066525</v>
+        <v>35458.066525000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.849463</v>
+        <v>9.8494630000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1834.910000</v>
+        <v>1834.91</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1437.640000</v>
+        <v>-1437.64</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>35287.714549</v>
+        <v>35287.714548999997</v>
       </c>
       <c r="B7" s="1">
-        <v>9.802143</v>
+        <v>9.8021429999999992</v>
       </c>
       <c r="C7" s="1">
-        <v>904.634000</v>
+        <v>904.63400000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.003000</v>
+        <v>-202.00299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>35297.743162</v>
+        <v>35297.743161999999</v>
       </c>
       <c r="G7" s="1">
-        <v>9.804929</v>
+        <v>9.8049289999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>921.307000</v>
+        <v>921.30700000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.232000</v>
+        <v>-171.232</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>35308.256363</v>
       </c>
       <c r="L7" s="1">
-        <v>9.807849</v>
+        <v>9.8078489999999992</v>
       </c>
       <c r="M7" s="1">
-        <v>945.257000</v>
+        <v>945.25699999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.602000</v>
+        <v>-121.602</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>35318.445218</v>
+        <v>35318.445218000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.810679</v>
+        <v>9.8106790000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>952.720000</v>
+        <v>952.72</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.648000</v>
+        <v>-104.648</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>35328.638498</v>
       </c>
       <c r="V7" s="1">
-        <v>9.813511</v>
+        <v>9.8135110000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>959.336000</v>
+        <v>959.33600000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.305300</v>
+        <v>-89.305300000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>35339.047538</v>
+        <v>35339.047537999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.816402</v>
+        <v>9.8164020000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.434000</v>
+        <v>966.43399999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.304500</v>
+        <v>-77.304500000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>35349.582047</v>
+        <v>35349.582047000004</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.819328</v>
+        <v>9.8193280000000005</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.147000</v>
+        <v>971.14700000000005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.057000</v>
+        <v>-75.057000000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>35360.372533</v>
+        <v>35360.372533000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.822326</v>
+        <v>9.8223260000000003</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.311000</v>
+        <v>978.31100000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.621500</v>
+        <v>-79.621499999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>35370.914193</v>
+        <v>35370.914192999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.825254</v>
+        <v>9.8252539999999993</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.299000</v>
+        <v>986.29899999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.137900</v>
+        <v>-91.137900000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>35381.425225</v>
+        <v>35381.425224999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.828174</v>
+        <v>9.8281740000000006</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.130000</v>
+        <v>996.13</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.754000</v>
+        <v>-108.754</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>35392.491930</v>
+        <v>35392.491929999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.831248</v>
+        <v>9.8312480000000004</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.402000</v>
+        <v>-124.402</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>35403.444589</v>
+        <v>35403.444588999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.834290</v>
+        <v>9.8342899999999993</v>
       </c>
       <c r="BF7" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.432000</v>
+        <v>-196.43199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>35414.574848</v>
+        <v>35414.574847999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.837382</v>
+        <v>9.8373819999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1108.910000</v>
+        <v>1108.9100000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.739000</v>
+        <v>-313.73899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>35425.836017</v>
+        <v>35425.836017000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.840510</v>
+        <v>9.8405100000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-499.182000</v>
+        <v>-499.18200000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>35436.258913</v>
+        <v>35436.258912999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.843405</v>
+        <v>9.8434050000000006</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.250000</v>
+        <v>1338.25</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.201000</v>
+        <v>-703.20100000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>35447.100467</v>
+        <v>35447.100466999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.846417</v>
+        <v>9.8464170000000006</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1475.110000</v>
+        <v>1475.11</v>
       </c>
       <c r="CA7" s="1">
-        <v>-920.368000</v>
+        <v>-920.36800000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>35458.621540</v>
+        <v>35458.62154</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.849617</v>
+        <v>9.8496170000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1833.710000</v>
+        <v>1833.71</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1437.890000</v>
+        <v>-1437.89</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>35288.398036</v>
+        <v>35288.398035999999</v>
       </c>
       <c r="B8" s="1">
-        <v>9.802333</v>
+        <v>9.8023330000000009</v>
       </c>
       <c r="C8" s="1">
-        <v>904.415000</v>
+        <v>904.41499999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-201.971000</v>
+        <v>-201.971</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>35298.437064</v>
+        <v>35298.437063999998</v>
       </c>
       <c r="G8" s="1">
-        <v>9.805121</v>
+        <v>9.8051209999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>921.533000</v>
+        <v>921.53300000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.088000</v>
+        <v>-171.08799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>35308.599625</v>
+        <v>35308.599625000003</v>
       </c>
       <c r="L8" s="1">
-        <v>9.807944</v>
+        <v>9.8079440000000009</v>
       </c>
       <c r="M8" s="1">
-        <v>945.595000</v>
+        <v>945.59500000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.652000</v>
+        <v>-121.652</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>35318.788446</v>
+        <v>35318.788445999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.810775</v>
+        <v>9.8107749999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>952.709000</v>
+        <v>952.70899999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.625000</v>
+        <v>-104.625</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>35328.981696</v>
+        <v>35328.981696000003</v>
       </c>
       <c r="V8" s="1">
-        <v>9.813606</v>
+        <v>9.8136060000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>959.358000</v>
+        <v>959.35799999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.244500</v>
+        <v>-89.244500000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>35339.705201</v>
+        <v>35339.705200999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.816585</v>
+        <v>9.8165849999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.456000</v>
+        <v>966.45600000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.425100</v>
+        <v>-77.4251</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>35350.223858</v>
+        <v>35350.223857999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.819507</v>
+        <v>9.8195069999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.155000</v>
+        <v>971.15499999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.028300</v>
+        <v>-75.028300000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>35360.750453</v>
+        <v>35360.750453000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.822431</v>
+        <v>9.8224309999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.307000</v>
+        <v>978.30700000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.623400</v>
+        <v>-79.623400000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>35371.111415</v>
+        <v>35371.111414999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.825309</v>
+        <v>9.8253090000000007</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.328000</v>
+        <v>986.32799999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.119000</v>
+        <v>-91.119</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>35381.788761</v>
+        <v>35381.788761000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.828275</v>
+        <v>9.8282749999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.137000</v>
+        <v>996.13699999999994</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.759000</v>
+        <v>-108.759</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>35392.849082</v>
+        <v>35392.849082000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.831347</v>
+        <v>9.8313469999999992</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.387000</v>
+        <v>-124.387</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>35403.801710</v>
+        <v>35403.80171</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.834389</v>
+        <v>9.8343889999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.429000</v>
+        <v>-196.429</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>35414.990501</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.837497</v>
+        <v>9.8374970000000008</v>
       </c>
       <c r="BK8" s="1">
-        <v>1108.910000</v>
+        <v>1108.9100000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.725000</v>
+        <v>-313.72500000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>35426.234766</v>
+        <v>35426.234766000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.840621</v>
+        <v>9.8406210000000005</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-499.128000</v>
+        <v>-499.12799999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>35436.672612</v>
+        <v>35436.672612000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.843520</v>
+        <v>9.8435199999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.250000</v>
+        <v>1338.25</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.154000</v>
+        <v>-703.154</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>35447.549842</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.846542</v>
+        <v>9.8465419999999995</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1475.100000</v>
+        <v>1475.1</v>
       </c>
       <c r="CA8" s="1">
-        <v>-920.327000</v>
+        <v>-920.327</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>35459.152259</v>
+        <v>35459.152259000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.849765</v>
+        <v>9.8497649999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>1835.150000</v>
+        <v>1835.15</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1437.780000</v>
+        <v>-1437.78</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>35288.740773</v>
+        <v>35288.740772999998</v>
       </c>
       <c r="B9" s="1">
-        <v>9.802428</v>
+        <v>9.8024280000000008</v>
       </c>
       <c r="C9" s="1">
-        <v>904.564000</v>
+        <v>904.56399999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-201.973000</v>
+        <v>-201.97300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>35298.786743</v>
+        <v>35298.786742999997</v>
       </c>
       <c r="G9" s="1">
-        <v>9.805219</v>
+        <v>9.8052189999999992</v>
       </c>
       <c r="H9" s="1">
-        <v>921.535000</v>
+        <v>921.53499999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.987000</v>
+        <v>-170.98699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>35308.944345</v>
+        <v>35308.944345000004</v>
       </c>
       <c r="L9" s="1">
-        <v>9.808040</v>
+        <v>9.8080400000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>945.430000</v>
+        <v>945.43</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.699000</v>
+        <v>-121.699</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>35319.271516</v>
+        <v>35319.271516000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.810909</v>
+        <v>9.8109090000000005</v>
       </c>
       <c r="R9" s="1">
-        <v>952.692000</v>
+        <v>952.69200000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.622000</v>
+        <v>-104.622</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>35329.637406</v>
+        <v>35329.637406000002</v>
       </c>
       <c r="V9" s="1">
-        <v>9.813788</v>
+        <v>9.8137880000000006</v>
       </c>
       <c r="W9" s="1">
-        <v>959.360000</v>
+        <v>959.36</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.230100</v>
+        <v>-89.230099999999993</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>35340.091090</v>
+        <v>35340.091090000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.816692</v>
+        <v>9.8166919999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.526000</v>
+        <v>966.52599999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.379400</v>
+        <v>-77.379400000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>35350.607793</v>
+        <v>35350.607793000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.819613</v>
+        <v>9.8196130000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.145000</v>
+        <v>971.14499999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.018300</v>
+        <v>-75.018299999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>35361.101157</v>
+        <v>35361.101156999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.822528</v>
+        <v>9.8225280000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.314000</v>
+        <v>978.31399999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.590900</v>
+        <v>-79.590900000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>35371.471014</v>
+        <v>35371.471014000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.825409</v>
+        <v>9.8254090000000005</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.308000</v>
+        <v>986.30799999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.114700</v>
+        <v>-91.114699999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>35382.153320</v>
+        <v>35382.153319999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.828376</v>
+        <v>9.8283760000000004</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.137000</v>
+        <v>996.13699999999994</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.786000</v>
+        <v>-108.786</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>35393.264713</v>
+        <v>35393.264712999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.831462</v>
+        <v>9.8314620000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.419000</v>
+        <v>-124.419</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>35404.251589</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.834514</v>
+        <v>9.8345140000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.464000</v>
+        <v>-196.464</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>35415.324792</v>
+        <v>35415.324791999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.837590</v>
+        <v>9.8375900000000005</v>
       </c>
       <c r="BK9" s="1">
-        <v>1108.920000</v>
+        <v>1108.92</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.741000</v>
+        <v>-313.74099999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>35426.656367</v>
+        <v>35426.656367000003</v>
       </c>
       <c r="BO9" s="1">
         <v>9.840738</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-499.159000</v>
+        <v>-499.15899999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>35437.106080</v>
+        <v>35437.106079999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.843641</v>
+        <v>9.8436409999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.210000</v>
+        <v>1338.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.089000</v>
+        <v>-703.08900000000006</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>35448.005667</v>
+        <v>35448.005666999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.846668</v>
+        <v>9.8466679999999993</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1475.070000</v>
+        <v>1475.07</v>
       </c>
       <c r="CA9" s="1">
-        <v>-920.351000</v>
+        <v>-920.351</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>35459.670082</v>
+        <v>35459.670081999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.849908</v>
+        <v>9.8499079999999992</v>
       </c>
       <c r="CE9" s="1">
-        <v>1834.630000</v>
+        <v>1834.63</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1436.400000</v>
+        <v>-1436.4</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>35289.080037</v>
       </c>
       <c r="B10" s="1">
-        <v>9.802522</v>
+        <v>9.8025219999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>904.635000</v>
+        <v>904.63499999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.052000</v>
+        <v>-202.05199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>35299.126534</v>
+        <v>35299.126534000003</v>
       </c>
       <c r="G10" s="1">
-        <v>9.805313</v>
+        <v>9.8053129999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>921.682000</v>
+        <v>921.68200000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.931000</v>
+        <v>-170.93100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>35309.610937</v>
+        <v>35309.610936999998</v>
       </c>
       <c r="L10" s="1">
-        <v>9.808225</v>
+        <v>9.8082250000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>945.406000</v>
+        <v>945.40599999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.602000</v>
+        <v>-121.602</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>35319.714939</v>
+        <v>35319.714938999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.811032</v>
+        <v>9.8110320000000009</v>
       </c>
       <c r="R10" s="1">
-        <v>952.699000</v>
+        <v>952.69899999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.621000</v>
+        <v>-104.621</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>35330.013405</v>
+        <v>35330.013404999998</v>
       </c>
       <c r="V10" s="1">
-        <v>9.813893</v>
+        <v>9.8138930000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>959.312000</v>
+        <v>959.31200000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.259300</v>
+        <v>-89.259299999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>35340.441265</v>
+        <v>35340.441265000001</v>
       </c>
       <c r="AA10" s="1">
         <v>9.816789</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.398000</v>
+        <v>966.39800000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.333400</v>
+        <v>-77.333399999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>35350.953970</v>
+        <v>35350.953970000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.819709</v>
+        <v>9.8197089999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.131000</v>
+        <v>971.13099999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.017800</v>
+        <v>-75.017799999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>35361.444884</v>
+        <v>35361.444883999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.822624</v>
+        <v>9.8226239999999994</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.308000</v>
+        <v>978.30799999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.601600</v>
+        <v>-79.601600000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>35371.889128</v>
+        <v>35371.889128000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.825525</v>
+        <v>9.8255250000000007</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.336000</v>
+        <v>986.33600000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.127700</v>
+        <v>-91.127700000000004</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>35382.577898</v>
+        <v>35382.577898000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.828494</v>
+        <v>9.8284939999999992</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.117000</v>
+        <v>996.11699999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.736000</v>
+        <v>-108.736</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>35393.567290</v>
+        <v>35393.567289999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.831546</v>
+        <v>9.8315459999999995</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.386000</v>
+        <v>-124.386</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>35404.521440</v>
+        <v>35404.521439999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.834589</v>
+        <v>9.8345889999999994</v>
       </c>
       <c r="BF10" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.445000</v>
+        <v>-196.44499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>35415.702221</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.837695</v>
+        <v>9.8376950000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1108.910000</v>
+        <v>1108.9100000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.747000</v>
+        <v>-313.74700000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>35427.051678</v>
+        <v>35427.051678000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.840848</v>
+        <v>9.8408479999999994</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-499.144000</v>
+        <v>-499.14400000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>35437.530656</v>
+        <v>35437.530656000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.843759</v>
+        <v>9.8437590000000004</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.210000</v>
+        <v>1338.21</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.049000</v>
+        <v>-703.04899999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>35448.456529</v>
+        <v>35448.456529000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.846793</v>
+        <v>9.8467929999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1475.010000</v>
+        <v>1475.01</v>
       </c>
       <c r="CA10" s="1">
-        <v>-920.324000</v>
+        <v>-920.32399999999996</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>35460.186945</v>
+        <v>35460.186945000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.850052</v>
+        <v>9.8500519999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1833.500000</v>
+        <v>1833.5</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1436.960000</v>
+        <v>-1436.96</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>35289.737251</v>
+        <v>35289.737250999999</v>
       </c>
       <c r="B11" s="1">
-        <v>9.802705</v>
+        <v>9.8027049999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>904.512000</v>
+        <v>904.51199999999994</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.087000</v>
+        <v>-202.08699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>35299.773318</v>
       </c>
       <c r="G11" s="1">
-        <v>9.805493</v>
+        <v>9.8054930000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>921.756000</v>
+        <v>921.75599999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-170.965000</v>
+        <v>-170.965</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>35309.984921</v>
+        <v>35309.984921000003</v>
       </c>
       <c r="L11" s="1">
-        <v>9.808329</v>
+        <v>9.8083290000000005</v>
       </c>
       <c r="M11" s="1">
-        <v>945.470000</v>
+        <v>945.47</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.814000</v>
+        <v>-121.81399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>35319.836496</v>
+        <v>35319.836496000004</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.811066</v>
+        <v>9.8110660000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>952.672000</v>
+        <v>952.67200000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.585000</v>
+        <v>-104.58499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>35330.353134</v>
+        <v>35330.353133999997</v>
       </c>
       <c r="V11" s="1">
-        <v>9.813987</v>
+        <v>9.8139869999999991</v>
       </c>
       <c r="W11" s="1">
-        <v>959.305000</v>
+        <v>959.30499999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.284800</v>
+        <v>-89.284800000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>35340.788498</v>
+        <v>35340.788498000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.816886</v>
+        <v>9.8168860000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.522000</v>
+        <v>966.52200000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.430300</v>
+        <v>-77.430300000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>35351.296209</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.819805</v>
+        <v>9.8198050000000006</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.102000</v>
+        <v>971.10199999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.068900</v>
+        <v>-75.068899999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>35361.866980</v>
+        <v>35361.866979999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.822741</v>
+        <v>9.8227410000000006</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.338000</v>
+        <v>978.33799999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.589800</v>
+        <v>-79.589799999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>35372.188726</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.825608</v>
+        <v>9.8256080000000008</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.314000</v>
+        <v>986.31399999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.121600</v>
+        <v>-91.121600000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>35382.880983</v>
+        <v>35382.880983000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.828578</v>
+        <v>9.8285780000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.147000</v>
+        <v>996.14700000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.751000</v>
+        <v>-108.751</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>35393.924378</v>
+        <v>35393.924378000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.831646</v>
+        <v>9.8316459999999992</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.370000</v>
+        <v>1004.37</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.392000</v>
+        <v>-124.392</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>35404.883018</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.834690</v>
+        <v>9.8346900000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.455000</v>
+        <v>-196.45500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>35416.085635</v>
+        <v>35416.085635000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.837802</v>
+        <v>9.8378019999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1108.910000</v>
+        <v>1108.9100000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.726000</v>
+        <v>-313.726</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>35427.472286</v>
+        <v>35427.472285999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.840965</v>
+        <v>9.8409650000000006</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-499.165000</v>
+        <v>-499.16500000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>35437.982030</v>
+        <v>35437.982029999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.843884</v>
+        <v>9.8438839999999992</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.230000</v>
+        <v>1338.23</v>
       </c>
       <c r="BV11" s="1">
-        <v>-702.970000</v>
+        <v>-702.97</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>35448.878129</v>
+        <v>35448.878128999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.846911</v>
+        <v>9.8469110000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1475.130000</v>
+        <v>1475.13</v>
       </c>
       <c r="CA11" s="1">
-        <v>-920.383000</v>
+        <v>-920.38300000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>35460.704242</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.850196</v>
+        <v>9.8501960000000004</v>
       </c>
       <c r="CE11" s="1">
-        <v>1833.540000</v>
+        <v>1833.54</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1436.660000</v>
+        <v>-1436.66</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>35290.106258</v>
       </c>
       <c r="B12" s="1">
-        <v>9.802807</v>
+        <v>9.8028069999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>904.233000</v>
+        <v>904.23299999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-201.933000</v>
+        <v>-201.93299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>35300.161653</v>
+        <v>35300.161653000003</v>
       </c>
       <c r="G12" s="1">
-        <v>9.805600</v>
+        <v>9.8056000000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>922.235000</v>
+        <v>922.23500000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-170.919000</v>
+        <v>-170.91900000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>35310.331624</v>
+        <v>35310.331623999999</v>
       </c>
       <c r="L12" s="1">
-        <v>9.808425</v>
+        <v>9.8084249999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>945.191000</v>
+        <v>945.19100000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.773000</v>
+        <v>-121.773</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>35320.188122</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.811163</v>
+        <v>9.8111630000000005</v>
       </c>
       <c r="R12" s="1">
-        <v>952.713000</v>
+        <v>952.71299999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.588000</v>
+        <v>-104.58799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>35330.701170</v>
+        <v>35330.70117</v>
       </c>
       <c r="V12" s="1">
-        <v>9.814084</v>
+        <v>9.8140839999999994</v>
       </c>
       <c r="W12" s="1">
-        <v>959.350000</v>
+        <v>959.35</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.276300</v>
+        <v>-89.276300000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>35341.202158</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.817001</v>
+        <v>9.8170009999999994</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.452000</v>
+        <v>966.452</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.333700</v>
+        <v>-77.333699999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>35351.720787</v>
+        <v>35351.720786999998</v>
       </c>
       <c r="AF12" s="1">
         <v>9.819922</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.149000</v>
+        <v>971.149</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.021600</v>
+        <v>-75.021600000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>35362.145203</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.822818</v>
+        <v>9.8228179999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.311000</v>
+        <v>978.31100000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.589200</v>
+        <v>-79.589200000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>35372.551269</v>
+        <v>35372.551269000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.825709</v>
+        <v>9.8257089999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.321000</v>
+        <v>986.32100000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.133200</v>
+        <v>-91.133200000000002</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>35383.248487</v>
+        <v>35383.248486999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.828680</v>
+        <v>9.8286800000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.132000</v>
+        <v>996.13199999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.760000</v>
+        <v>-108.76</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>35394.285464</v>
+        <v>35394.285464000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.831746</v>
+        <v>9.8317460000000008</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.424000</v>
+        <v>-124.42400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>35405.606186</v>
+        <v>35405.606185999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.834891</v>
+        <v>9.8348910000000007</v>
       </c>
       <c r="BF12" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.449000</v>
+        <v>-196.44900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>35416.851482</v>
+        <v>35416.851481999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.838014</v>
+        <v>9.8380139999999994</v>
       </c>
       <c r="BK12" s="1">
-        <v>1108.930000</v>
+        <v>1108.93</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.740000</v>
+        <v>-313.74</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>35427.871602</v>
+        <v>35427.871601999999</v>
       </c>
       <c r="BO12" s="1">
         <v>9.841075</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-499.168000</v>
+        <v>-499.16800000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>35438.371878</v>
+        <v>35438.371877999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.843992</v>
+        <v>9.8439920000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.170000</v>
+        <v>1338.17</v>
       </c>
       <c r="BV12" s="1">
-        <v>-702.963000</v>
+        <v>-702.96299999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>35449.297249</v>
+        <v>35449.297249000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.847027</v>
+        <v>9.8470270000000006</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1475.090000</v>
+        <v>1475.09</v>
       </c>
       <c r="CA12" s="1">
-        <v>-920.340000</v>
+        <v>-920.34</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>35461.564836</v>
+        <v>35461.564835999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.850435</v>
+        <v>9.8504349999999992</v>
       </c>
       <c r="CE12" s="1">
-        <v>1834.490000</v>
+        <v>1834.49</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1436.590000</v>
+        <v>-1436.59</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>35290.445554</v>
+        <v>35290.445553999998</v>
       </c>
       <c r="B13" s="1">
-        <v>9.802902</v>
+        <v>9.8029019999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>904.153000</v>
+        <v>904.15300000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.235000</v>
+        <v>-202.23500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>35300.507892</v>
+        <v>35300.507892000001</v>
       </c>
       <c r="G13" s="1">
-        <v>9.805697</v>
+        <v>9.8056970000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>921.957000</v>
+        <v>921.95699999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.017000</v>
+        <v>-171.017</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>35310.679853</v>
+        <v>35310.679853000001</v>
       </c>
       <c r="L13" s="1">
         <v>9.808522</v>
       </c>
       <c r="M13" s="1">
-        <v>945.369000</v>
+        <v>945.36900000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.776000</v>
+        <v>-121.776</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>35320.602022</v>
+        <v>35320.602021999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.811278</v>
+        <v>9.8112779999999997</v>
       </c>
       <c r="R13" s="1">
-        <v>952.727000</v>
+        <v>952.72699999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.618000</v>
+        <v>-104.61799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>35331.132845</v>
       </c>
       <c r="V13" s="1">
-        <v>9.814204</v>
+        <v>9.8142040000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>959.297000</v>
+        <v>959.29700000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.175100</v>
+        <v>-89.1751</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>35341.487359</v>
+        <v>35341.487358999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.817080</v>
+        <v>9.8170800000000007</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.538000</v>
+        <v>966.53800000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.273700</v>
+        <v>-77.273700000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>35351.986179</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.819996</v>
+        <v>9.8199959999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.146000</v>
+        <v>971.14599999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.015700</v>
+        <v>-75.015699999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>35362.492435</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.822915</v>
+        <v>9.8229150000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.309000</v>
+        <v>978.30899999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.602700</v>
+        <v>-79.602699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>35372.911862</v>
+        <v>35372.911862000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.825809</v>
+        <v>9.8258089999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.335000</v>
+        <v>986.33500000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.123500</v>
+        <v>-91.123500000000007</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>35383.611093</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.828781</v>
+        <v>9.8287809999999993</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.121000</v>
+        <v>996.12099999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.743000</v>
+        <v>-108.74299999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>35395.009129</v>
+        <v>35395.009128999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.831947</v>
+        <v>9.8319469999999995</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.386000</v>
+        <v>-124.386</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>35405.967774</v>
+        <v>35405.967773999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.834991</v>
+        <v>9.8349910000000005</v>
       </c>
       <c r="BF13" s="1">
-        <v>1042.700000</v>
+        <v>1042.7</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.428000</v>
+        <v>-196.428</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>35417.226675</v>
+        <v>35417.226674999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.838119</v>
+        <v>9.8381190000000007</v>
       </c>
       <c r="BK13" s="1">
-        <v>1108.900000</v>
+        <v>1108.9000000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.779000</v>
+        <v>-313.779</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>35428.290188</v>
+        <v>35428.290187999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.841192</v>
+        <v>9.8411919999999995</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-499.190000</v>
+        <v>-499.19</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>35439.121852</v>
+        <v>35439.121851999997</v>
       </c>
       <c r="BT13" s="1">
         <v>9.844201</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.180000</v>
+        <v>1338.18</v>
       </c>
       <c r="BV13" s="1">
-        <v>-702.923000</v>
+        <v>-702.923</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>35450.019456</v>
+        <v>35450.019456000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.847228</v>
+        <v>9.8472279999999994</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1475.190000</v>
+        <v>1475.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-920.306000</v>
+        <v>-920.30600000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>35461.785023</v>
+        <v>35461.785022999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.850496</v>
+        <v>9.8504959999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>1833.390000</v>
+        <v>1833.39</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1437.260000</v>
+        <v>-1437.26</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>35290.789747</v>
+        <v>35290.789747000003</v>
       </c>
       <c r="B14" s="1">
-        <v>9.802997</v>
+        <v>9.8029969999999995</v>
       </c>
       <c r="C14" s="1">
-        <v>903.623000</v>
+        <v>903.62300000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.125000</v>
+        <v>-202.125</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>35300.851588</v>
+        <v>35300.851587999998</v>
       </c>
       <c r="G14" s="1">
-        <v>9.805792</v>
+        <v>9.8057920000000003</v>
       </c>
       <c r="H14" s="1">
-        <v>921.997000</v>
+        <v>921.99699999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-170.486000</v>
+        <v>-170.48599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>35311.092488</v>
+        <v>35311.092488000002</v>
       </c>
       <c r="L14" s="1">
-        <v>9.808637</v>
+        <v>9.8086369999999992</v>
       </c>
       <c r="M14" s="1">
-        <v>945.337000</v>
+        <v>945.33699999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.778000</v>
+        <v>-121.77800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>35320.899881</v>
+        <v>35320.899880999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.811361</v>
+        <v>9.8113609999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>952.730000</v>
+        <v>952.73</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.647000</v>
+        <v>-104.64700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>35331.410141</v>
       </c>
       <c r="V14" s="1">
-        <v>9.814281</v>
+        <v>9.8142809999999994</v>
       </c>
       <c r="W14" s="1">
-        <v>959.298000</v>
+        <v>959.298</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.306800</v>
+        <v>-89.306799999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>35341.834558</v>
+        <v>35341.834558000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.817176</v>
+        <v>9.8171759999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.397000</v>
+        <v>966.39700000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.447100</v>
+        <v>-77.447100000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>35352.336816</v>
+        <v>35352.336816000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.820094</v>
+        <v>9.8200939999999992</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.146000</v>
+        <v>971.14599999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.009600</v>
+        <v>-75.009600000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>35362.842082</v>
+        <v>35362.842082000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.823012</v>
+        <v>9.8230120000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.295000</v>
+        <v>978.29499999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.598400</v>
+        <v>-79.598399999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>35373.633077</v>
+        <v>35373.633076999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.826009</v>
+        <v>9.8260090000000009</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.324000</v>
+        <v>986.32399999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.127300</v>
+        <v>-91.127300000000005</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>35384.352582</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.828987</v>
+        <v>9.8289869999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.138000</v>
+        <v>996.13800000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.752000</v>
+        <v>-108.752</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>35395.382651</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.832051</v>
+        <v>9.8320509999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.401000</v>
+        <v>-124.401</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>35406.331800</v>
+        <v>35406.3318</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.835092</v>
+        <v>9.8350919999999995</v>
       </c>
       <c r="BF14" s="1">
-        <v>1042.670000</v>
+        <v>1042.67</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.453000</v>
+        <v>-196.453</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>35417.599913</v>
+        <v>35417.599912999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>9.838222</v>
       </c>
       <c r="BK14" s="1">
-        <v>1108.920000</v>
+        <v>1108.92</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.754000</v>
+        <v>-313.75400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>35428.992556</v>
+        <v>35428.992555999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.841387</v>
+        <v>9.8413869999999992</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-499.171000</v>
+        <v>-499.17099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>35439.248334</v>
+        <v>35439.248334000004</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.844236</v>
+        <v>9.8442360000000004</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV14" s="1">
-        <v>-702.852000</v>
+        <v>-702.85199999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>35450.142431</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.847262</v>
+        <v>9.8472620000000006</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1475.060000</v>
+        <v>1475.06</v>
       </c>
       <c r="CA14" s="1">
-        <v>-920.304000</v>
+        <v>-920.30399999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>35462.303361</v>
+        <v>35462.303360999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.850640</v>
+        <v>9.8506400000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1835.030000</v>
+        <v>1835.03</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1437.640000</v>
+        <v>-1437.64</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>35291.210354</v>
+        <v>35291.210354000003</v>
       </c>
       <c r="B15" s="1">
-        <v>9.803114</v>
+        <v>9.8031140000000008</v>
       </c>
       <c r="C15" s="1">
-        <v>903.700000</v>
+        <v>903.7</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.096000</v>
+        <v>-202.096</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>35301.283109</v>
+        <v>35301.283109000004</v>
       </c>
       <c r="G15" s="1">
-        <v>9.805912</v>
+        <v>9.8059119999999993</v>
       </c>
       <c r="H15" s="1">
-        <v>921.799000</v>
+        <v>921.79899999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.230000</v>
+        <v>-171.23</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>35311.383638</v>
+        <v>35311.383637999999</v>
       </c>
       <c r="L15" s="1">
-        <v>9.808718</v>
+        <v>9.8087180000000007</v>
       </c>
       <c r="M15" s="1">
-        <v>945.397000</v>
+        <v>945.39700000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.780000</v>
+        <v>-121.78</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>35321.249593</v>
@@ -3867,1902 +4283,1902 @@
         <v>9.811458</v>
       </c>
       <c r="R15" s="1">
-        <v>952.710000</v>
+        <v>952.71</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.644000</v>
+        <v>-104.64400000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>35331.753836</v>
+        <v>35331.753836000004</v>
       </c>
       <c r="V15" s="1">
-        <v>9.814376</v>
+        <v>9.8143759999999993</v>
       </c>
       <c r="W15" s="1">
-        <v>959.254000</v>
+        <v>959.25400000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.283800</v>
+        <v>-89.283799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>35342.184734</v>
+        <v>35342.184734000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.817274</v>
+        <v>9.8172739999999994</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.537000</v>
+        <v>966.53700000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.369100</v>
+        <v>-77.369100000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>35352.677567</v>
+        <v>35352.677566999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.820188</v>
+        <v>9.8201879999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.142000</v>
+        <v>971.14200000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.992700</v>
+        <v>-74.992699999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>35363.538497</v>
+        <v>35363.538497000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.823205</v>
+        <v>9.8232049999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.296000</v>
+        <v>978.29600000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.609200</v>
+        <v>-79.609200000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>35373.992179</v>
+        <v>35373.992179000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.826109</v>
+        <v>9.8261090000000006</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.327000</v>
+        <v>986.327</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.132500</v>
+        <v>-91.132499999999993</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>35384.732558</v>
+        <v>35384.732558000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.829092</v>
+        <v>9.8290919999999993</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.123000</v>
+        <v>996.12300000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.736000</v>
+        <v>-108.736</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>35395.761916</v>
+        <v>35395.761916000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.832156</v>
+        <v>9.8321559999999995</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.420000</v>
+        <v>-124.42</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>35407.001431</v>
+        <v>35407.001430999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.835278</v>
+        <v>9.8352780000000006</v>
       </c>
       <c r="BF15" s="1">
-        <v>1042.720000</v>
+        <v>1042.72</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.436000</v>
+        <v>-196.43600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>35418.304756</v>
+        <v>35418.304755999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.838418</v>
+        <v>9.8384180000000008</v>
       </c>
       <c r="BK15" s="1">
-        <v>1108.910000</v>
+        <v>1108.9100000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.755000</v>
+        <v>-313.755</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>35429.107627</v>
+        <v>35429.107626999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.841419</v>
+        <v>9.8414190000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-499.163000</v>
+        <v>-499.16300000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>35439.660013</v>
+        <v>35439.660013000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.844350</v>
+        <v>9.8443500000000004</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.240000</v>
+        <v>1338.24</v>
       </c>
       <c r="BV15" s="1">
-        <v>-702.769000</v>
+        <v>-702.76900000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>35450.577422</v>
+        <v>35450.577422000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.847383</v>
+        <v>9.8473830000000007</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1475.120000</v>
+        <v>1475.12</v>
       </c>
       <c r="CA15" s="1">
-        <v>-920.430000</v>
+        <v>-920.43</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>35462.843022</v>
+        <v>35462.843022000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.850790</v>
+        <v>9.8507899999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1833.910000</v>
+        <v>1833.91</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1436.140000</v>
+        <v>-1436.14</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>35291.487636</v>
+        <v>35291.487635999998</v>
       </c>
       <c r="B16" s="1">
         <v>9.803191</v>
       </c>
       <c r="C16" s="1">
-        <v>903.760000</v>
+        <v>903.76</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.063000</v>
+        <v>-202.06299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>35301.540068</v>
+        <v>35301.540068000002</v>
       </c>
       <c r="G16" s="1">
-        <v>9.805983</v>
+        <v>9.8059829999999994</v>
       </c>
       <c r="H16" s="1">
-        <v>921.511000</v>
+        <v>921.51099999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.290000</v>
+        <v>-171.29</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>35311.729846</v>
+        <v>35311.729846000002</v>
       </c>
       <c r="L16" s="1">
-        <v>9.808814</v>
+        <v>9.8088139999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>945.367000</v>
+        <v>945.36699999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.726000</v>
+        <v>-121.726</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>35321.596264</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.811555</v>
+        <v>9.8115550000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>952.700000</v>
+        <v>952.7</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.593000</v>
+        <v>-104.593</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>35332.095610</v>
+        <v>35332.095609999997</v>
       </c>
       <c r="V16" s="1">
-        <v>9.814471</v>
+        <v>9.8144709999999993</v>
       </c>
       <c r="W16" s="1">
-        <v>959.340000</v>
+        <v>959.34</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.282000</v>
+        <v>-89.281999999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>35342.880124</v>
+        <v>35342.880124000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.817467</v>
+        <v>9.8174670000000006</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.419000</v>
+        <v>966.41899999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.369400</v>
+        <v>-77.369399999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>35353.409663</v>
+        <v>35353.409662999999</v>
       </c>
       <c r="AF16" s="1">
         <v>9.820392</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.156000</v>
+        <v>971.15599999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.022100</v>
+        <v>-75.022099999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>35363.887650</v>
+        <v>35363.887649999997</v>
       </c>
       <c r="AK16" s="1">
         <v>9.823302</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.316000</v>
+        <v>978.31600000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.613300</v>
+        <v>-79.613299999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>35374.351253</v>
+        <v>35374.351253000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.826209</v>
+        <v>9.8262090000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.297000</v>
+        <v>986.29700000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.122000</v>
+        <v>-91.122</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>35385.097110</v>
+        <v>35385.097110000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.829194</v>
+        <v>9.8291939999999993</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.133000</v>
+        <v>996.13300000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.755000</v>
+        <v>-108.755</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>35396.428678</v>
+        <v>35396.428677999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.832341</v>
+        <v>9.8323409999999996</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.408000</v>
+        <v>-124.408</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>35407.431431</v>
+        <v>35407.431430999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.835398</v>
+        <v>9.8353979999999996</v>
       </c>
       <c r="BF16" s="1">
-        <v>1042.700000</v>
+        <v>1042.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.438000</v>
+        <v>-196.43799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>35418.753608</v>
+        <v>35418.753607999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.838543</v>
+        <v>9.8385429999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1108.900000</v>
+        <v>1108.9000000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.744000</v>
+        <v>-313.74400000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>35429.530714</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.841536</v>
+        <v>9.8415359999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-499.175000</v>
+        <v>-499.17500000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>35440.085549</v>
+        <v>35440.085549000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.844468</v>
+        <v>9.8444680000000009</v>
       </c>
       <c r="BU16" s="1">
-        <v>1338.350000</v>
+        <v>1338.35</v>
       </c>
       <c r="BV16" s="1">
-        <v>-702.783000</v>
+        <v>-702.78300000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>35450.997037</v>
+        <v>35450.997037000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.847499</v>
+        <v>9.8474989999999991</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1475.200000</v>
+        <v>1475.2</v>
       </c>
       <c r="CA16" s="1">
-        <v>-920.387000</v>
+        <v>-920.38699999999994</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>35463.382173</v>
+        <v>35463.382172999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.850939</v>
+        <v>9.8509390000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>1834.180000</v>
+        <v>1834.18</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1438.250000</v>
+        <v>-1438.25</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>35291.829857</v>
+        <v>35291.829856999997</v>
       </c>
       <c r="B17" s="1">
-        <v>9.803286</v>
+        <v>9.8032859999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>903.524000</v>
+        <v>903.524</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.407000</v>
+        <v>-202.40700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>35301.883802</v>
+        <v>35301.883801999997</v>
       </c>
       <c r="G17" s="1">
-        <v>9.806079</v>
+        <v>9.8060790000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>921.507000</v>
+        <v>921.50699999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.724000</v>
+        <v>-171.72399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>35312.077045</v>
+        <v>35312.077044999998</v>
       </c>
       <c r="L17" s="1">
-        <v>9.808910</v>
+        <v>9.8089099999999991</v>
       </c>
       <c r="M17" s="1">
-        <v>945.256000</v>
+        <v>945.25599999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.422000</v>
+        <v>-121.422</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>35322.294168</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.811748</v>
+        <v>9.8117479999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>952.731000</v>
+        <v>952.73099999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.585000</v>
+        <v>-104.58499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>35332.784296</v>
+        <v>35332.784295999998</v>
       </c>
       <c r="V17" s="1">
-        <v>9.814662</v>
+        <v>9.8146620000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>959.346000</v>
+        <v>959.346</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.284200</v>
+        <v>-89.284199999999998</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>35343.227292</v>
+        <v>35343.227292000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.817563</v>
+        <v>9.8175629999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.502000</v>
+        <v>966.50199999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.332800</v>
+        <v>-77.332800000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>35353.705278</v>
+        <v>35353.705278000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.820474</v>
+        <v>9.8204740000000008</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.153000</v>
+        <v>971.15300000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.989900</v>
+        <v>-74.989900000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>35364.237824</v>
+        <v>35364.237824000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.823399</v>
+        <v>9.8233990000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.325000</v>
+        <v>978.32500000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.609800</v>
+        <v>-79.609800000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>35375.015927</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.826393</v>
+        <v>9.8263929999999995</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.303000</v>
+        <v>986.303</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.138400</v>
+        <v>-91.138400000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>35385.763731</v>
+        <v>35385.763730999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.829379</v>
+        <v>9.8293789999999994</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.141000</v>
+        <v>996.14099999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.746000</v>
+        <v>-108.746</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>35396.846832</v>
+        <v>35396.846832000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.832457</v>
+        <v>9.8324569999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.393000</v>
+        <v>-124.393</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>35407.799960</v>
+        <v>35407.799959999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.835500</v>
+        <v>9.8354999999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1042.700000</v>
+        <v>1042.7</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.441000</v>
+        <v>-196.441</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>35419.149946</v>
+        <v>35419.149945999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.838653</v>
+        <v>9.8386530000000008</v>
       </c>
       <c r="BK17" s="1">
-        <v>1108.920000</v>
+        <v>1108.92</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.737000</v>
+        <v>-313.73700000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>35429.927513</v>
+        <v>35429.927513000002</v>
       </c>
       <c r="BO17" s="1">
         <v>9.841647</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-499.159000</v>
+        <v>-499.15899999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>35440.502719</v>
+        <v>35440.502718999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.844584</v>
+        <v>9.8445839999999993</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.290000</v>
+        <v>1338.29</v>
       </c>
       <c r="BV17" s="1">
-        <v>-702.733000</v>
+        <v>-702.73299999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>35451.419662</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.847617</v>
+        <v>9.8476169999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1475.100000</v>
+        <v>1475.1</v>
       </c>
       <c r="CA17" s="1">
-        <v>-920.392000</v>
+        <v>-920.39200000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>35463.923278</v>
+        <v>35463.923278000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.851090</v>
+        <v>9.8510899999999992</v>
       </c>
       <c r="CE17" s="1">
-        <v>1834.980000</v>
+        <v>1834.98</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1436.730000</v>
+        <v>-1436.73</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>35292.172626</v>
       </c>
       <c r="B18" s="1">
-        <v>9.803381</v>
+        <v>9.8033809999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>903.429000</v>
+        <v>903.42899999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.730000</v>
+        <v>-202.73</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>35302.556834</v>
+        <v>35302.556834000003</v>
       </c>
       <c r="G18" s="1">
-        <v>9.806266</v>
+        <v>9.8062660000000008</v>
       </c>
       <c r="H18" s="1">
-        <v>921.840000</v>
+        <v>921.84</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.488000</v>
+        <v>-171.488</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>35312.770989</v>
+        <v>35312.770988999997</v>
       </c>
       <c r="L18" s="1">
-        <v>9.809103</v>
+        <v>9.8091030000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>945.584000</v>
+        <v>945.58399999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.369000</v>
+        <v>-121.369</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>35322.640841</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.811845</v>
+        <v>9.8118449999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>952.732000</v>
+        <v>952.73199999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.587000</v>
+        <v>-104.587</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>35333.128250</v>
+        <v>35333.128250000002</v>
       </c>
       <c r="V18" s="1">
-        <v>9.814758</v>
+        <v>9.8147579999999994</v>
       </c>
       <c r="W18" s="1">
-        <v>959.367000</v>
+        <v>959.36699999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.264300</v>
+        <v>-89.264300000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>35343.580443</v>
+        <v>35343.580442999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.817661</v>
+        <v>9.8176609999999993</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.525000</v>
+        <v>966.52499999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.264400</v>
+        <v>-77.264399999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>35354.356030</v>
+        <v>35354.356030000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.820654</v>
+        <v>9.8206539999999993</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.162000</v>
+        <v>971.16200000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.072300</v>
+        <v>-75.072299999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>35364.901999</v>
+        <v>35364.901999000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.823584</v>
+        <v>9.8235840000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.316000</v>
+        <v>978.31600000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.610600</v>
+        <v>-79.610600000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>35375.459837</v>
+        <v>35375.459837000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.826517</v>
+        <v>9.8265170000000008</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.325000</v>
+        <v>986.32500000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.187100</v>
+        <v>-91.187100000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>35386.223989</v>
+        <v>35386.223988999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.829507</v>
+        <v>9.8295069999999996</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.130000</v>
+        <v>996.13</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.778000</v>
+        <v>-108.77800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>35397.222278</v>
+        <v>35397.222278000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.832562</v>
+        <v>9.8325619999999994</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.384000</v>
+        <v>-124.384</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>35408.163526</v>
+        <v>35408.163525999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.835601</v>
+        <v>9.8356010000000005</v>
       </c>
       <c r="BF18" s="1">
-        <v>1042.710000</v>
+        <v>1042.71</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.438000</v>
+        <v>-196.43799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>35419.530381</v>
+        <v>35419.530380999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.838758</v>
+        <v>9.8387580000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1108.900000</v>
+        <v>1108.9000000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.770000</v>
+        <v>-313.77</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>35430.375369</v>
+        <v>35430.375369000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.841771</v>
+        <v>9.8417709999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-499.181000</v>
+        <v>-499.18099999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>35440.915391</v>
+        <v>35440.915391000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.844699</v>
+        <v>9.8446990000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.410000</v>
+        <v>1338.41</v>
       </c>
       <c r="BV18" s="1">
-        <v>-702.723000</v>
+        <v>-702.72299999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>35451.846222</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.847735</v>
+        <v>9.8477350000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1475.100000</v>
+        <v>1475.1</v>
       </c>
       <c r="CA18" s="1">
-        <v>-920.351000</v>
+        <v>-920.351</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>35464.460972</v>
+        <v>35464.460972000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.851239</v>
+        <v>9.8512389999999996</v>
       </c>
       <c r="CE18" s="1">
-        <v>1833.560000</v>
+        <v>1833.56</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1436.930000</v>
+        <v>-1436.93</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>35292.854591</v>
+        <v>35292.854591000003</v>
       </c>
       <c r="B19" s="1">
-        <v>9.803571</v>
+        <v>9.8035709999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>903.198000</v>
+        <v>903.19799999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.781000</v>
+        <v>-202.78100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>35302.922385</v>
+        <v>35302.922384999998</v>
       </c>
       <c r="G19" s="1">
-        <v>9.806367</v>
+        <v>9.8063669999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>921.854000</v>
+        <v>921.85400000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.885000</v>
+        <v>-170.88499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>35313.117156</v>
       </c>
       <c r="L19" s="1">
-        <v>9.809199</v>
+        <v>9.8091989999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>945.399000</v>
+        <v>945.399</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.188000</v>
+        <v>-121.188</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>35322.991542</v>
+        <v>35322.991542000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.811942</v>
+        <v>9.8119420000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>952.719000</v>
+        <v>952.71900000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.629000</v>
+        <v>-104.629</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>35333.471516</v>
+        <v>35333.471515999998</v>
       </c>
       <c r="V19" s="1">
-        <v>9.814853</v>
+        <v>9.8148529999999994</v>
       </c>
       <c r="W19" s="1">
-        <v>959.298000</v>
+        <v>959.298</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.314700</v>
+        <v>-89.314700000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>35344.226730</v>
+        <v>35344.226730000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.817841</v>
+        <v>9.8178409999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.437000</v>
+        <v>966.43700000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.400700</v>
+        <v>-77.400700000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>35354.735469</v>
+        <v>35354.735468999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.820760</v>
+        <v>9.8207599999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.147000</v>
+        <v>971.14700000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.998900</v>
+        <v>-74.998900000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>35365.280415</v>
+        <v>35365.280415000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.823689</v>
+        <v>9.8236889999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.280000</v>
+        <v>978.28</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.604500</v>
+        <v>-79.604500000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>35375.819409</v>
+        <v>35375.819409000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.826617</v>
+        <v>9.8266170000000006</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.331000</v>
+        <v>986.33100000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.164100</v>
+        <v>-91.164100000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>35386.592019</v>
+        <v>35386.592019000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.829609</v>
+        <v>9.8296089999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.118000</v>
+        <v>996.11800000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.766000</v>
+        <v>-108.76600000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>35397.602246</v>
+        <v>35397.602246000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.832667</v>
+        <v>9.8326670000000007</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.423000</v>
+        <v>-124.423</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>35408.597030</v>
+        <v>35408.597029999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.835721</v>
+        <v>9.8357209999999995</v>
       </c>
       <c r="BF19" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.447000</v>
+        <v>-196.447</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>35419.962358</v>
+        <v>35419.962357999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.838878</v>
+        <v>9.8388779999999993</v>
       </c>
       <c r="BK19" s="1">
-        <v>1108.890000</v>
+        <v>1108.8900000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.745000</v>
+        <v>-313.745</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>35430.746902</v>
+        <v>35430.746901999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.841874</v>
+        <v>9.8418740000000007</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-499.180000</v>
+        <v>-499.18</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>35441.331499</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.844814</v>
+        <v>9.8448139999999995</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.470000</v>
+        <v>1338.47</v>
       </c>
       <c r="BV19" s="1">
-        <v>-702.702000</v>
+        <v>-702.702</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>35452.262829</v>
+        <v>35452.262828999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.847851</v>
+        <v>9.8478510000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1475.090000</v>
+        <v>1475.09</v>
       </c>
       <c r="CA19" s="1">
-        <v>-920.456000</v>
+        <v>-920.45600000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>35465.004095</v>
+        <v>35465.004094999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.851390</v>
+        <v>9.8513900000000003</v>
       </c>
       <c r="CE19" s="1">
-        <v>1834.900000</v>
+        <v>1834.9</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1437.740000</v>
+        <v>-1437.74</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>35293.199316</v>
+        <v>35293.199315999998</v>
       </c>
       <c r="B20" s="1">
-        <v>9.803666</v>
+        <v>9.8036659999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>903.308000</v>
+        <v>903.30799999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.722000</v>
+        <v>-202.72200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>35303.265649</v>
+        <v>35303.265649000001</v>
       </c>
       <c r="G20" s="1">
-        <v>9.806463</v>
+        <v>9.8064630000000008</v>
       </c>
       <c r="H20" s="1">
-        <v>921.709000</v>
+        <v>921.70899999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.205000</v>
+        <v>-171.20500000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>35313.459891</v>
+        <v>35313.459890999999</v>
       </c>
       <c r="L20" s="1">
-        <v>9.809294</v>
+        <v>9.8092939999999995</v>
       </c>
       <c r="M20" s="1">
-        <v>945.613000</v>
+        <v>945.61300000000006</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.192000</v>
+        <v>-121.19199999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>35323.647222</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.812124</v>
+        <v>9.8121240000000007</v>
       </c>
       <c r="R20" s="1">
-        <v>952.691000</v>
+        <v>952.69100000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.627000</v>
+        <v>-104.627</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>35334.123224</v>
+        <v>35334.123224000003</v>
       </c>
       <c r="V20" s="1">
-        <v>9.815034</v>
+        <v>9.8150340000000007</v>
       </c>
       <c r="W20" s="1">
-        <v>959.256000</v>
+        <v>959.25599999999997</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.215700</v>
+        <v>-89.215699999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>35344.623035</v>
+        <v>35344.623034999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.817951</v>
+        <v>9.8179510000000008</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.583000</v>
+        <v>966.58299999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.354400</v>
+        <v>-77.354399999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>35355.082174</v>
+        <v>35355.082174000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.820856</v>
+        <v>9.8208559999999991</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.130000</v>
+        <v>971.13</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.010300</v>
+        <v>-75.010300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>35365.632078</v>
+        <v>35365.632078000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.823787</v>
+        <v>9.8237869999999994</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.286000</v>
+        <v>978.28599999999994</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.602700</v>
+        <v>-79.602699999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>35376.180496</v>
+        <v>35376.180496000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.826717</v>
+        <v>9.8267170000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.346000</v>
+        <v>986.346</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.159500</v>
+        <v>-91.159499999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>35386.953107</v>
+        <v>35386.953107000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.829709</v>
+        <v>9.8297089999999994</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.126000</v>
+        <v>996.12599999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.756000</v>
+        <v>-108.756</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>35398.022820</v>
+        <v>35398.022819999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.832784</v>
+        <v>9.8327840000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.413000</v>
+        <v>-124.413</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>35408.884745</v>
+        <v>35408.884745000003</v>
       </c>
       <c r="BE20" s="1">
         <v>9.835801</v>
       </c>
       <c r="BF20" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.450000</v>
+        <v>-196.45</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>35420.303644</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.838973</v>
+        <v>9.8389729999999993</v>
       </c>
       <c r="BK20" s="1">
-        <v>1108.920000</v>
+        <v>1108.92</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.752000</v>
+        <v>-313.75200000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>35431.164541</v>
+        <v>35431.164540999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.841990</v>
+        <v>9.8419899999999991</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-499.157000</v>
+        <v>-499.15699999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>35441.742186</v>
+        <v>35441.742186000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.844928</v>
+        <v>9.8449279999999995</v>
       </c>
       <c r="BU20" s="1">
-        <v>1338.450000</v>
+        <v>1338.45</v>
       </c>
       <c r="BV20" s="1">
-        <v>-702.662000</v>
+        <v>-702.66200000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>35452.709725</v>
+        <v>35452.709725000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.847975</v>
+        <v>9.8479749999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1475.040000</v>
+        <v>1475.04</v>
       </c>
       <c r="CA20" s="1">
-        <v>-920.392000</v>
+        <v>-920.39200000000005</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>35465.543242</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.851540</v>
+        <v>9.85154</v>
       </c>
       <c r="CE20" s="1">
-        <v>1834.200000</v>
+        <v>1834.2</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1436.470000</v>
+        <v>-1436.47</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>35293.540559</v>
+        <v>35293.540559000001</v>
       </c>
       <c r="B21" s="1">
-        <v>9.803761</v>
+        <v>9.8037609999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>903.561000</v>
+        <v>903.56100000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.853000</v>
+        <v>-202.85300000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>35303.909461</v>
+        <v>35303.909461000003</v>
       </c>
       <c r="G21" s="1">
-        <v>9.806642</v>
+        <v>9.8066420000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>922.077000</v>
+        <v>922.077</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.096000</v>
+        <v>-171.096</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>35314.114610</v>
+        <v>35314.114609999997</v>
       </c>
       <c r="L21" s="1">
-        <v>9.809476</v>
+        <v>9.8094760000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>945.486000</v>
+        <v>945.48599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.166000</v>
+        <v>-121.166</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>35324.037109</v>
+        <v>35324.037108999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.812233</v>
+        <v>9.8122330000000009</v>
       </c>
       <c r="R21" s="1">
-        <v>952.683000</v>
+        <v>952.68299999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.620000</v>
+        <v>-104.62</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>35334.500185</v>
+        <v>35334.500184999997</v>
       </c>
       <c r="V21" s="1">
-        <v>9.815139</v>
+        <v>9.8151390000000003</v>
       </c>
       <c r="W21" s="1">
-        <v>959.402000</v>
+        <v>959.40200000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.324900</v>
+        <v>-89.3249</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>35344.972251</v>
+        <v>35344.972250999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.818048</v>
+        <v>9.8180479999999992</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.442000</v>
+        <v>966.44200000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.433700</v>
+        <v>-77.433700000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>35355.423421</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.820951</v>
+        <v>9.8209510000000009</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.151000</v>
+        <v>971.15099999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.017100</v>
+        <v>-75.017099999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>35365.980270</v>
+        <v>35365.98027</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.823883</v>
+        <v>9.8238830000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.309000</v>
+        <v>978.30899999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.616100</v>
+        <v>-79.616100000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>35376.596166</v>
+        <v>35376.596166000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.826832</v>
+        <v>9.8268319999999996</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.327000</v>
+        <v>986.327</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.165500</v>
+        <v>-91.165499999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>35387.401985</v>
+        <v>35387.401984999997</v>
       </c>
       <c r="AU21" s="1">
         <v>9.829834</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.129000</v>
+        <v>996.12900000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.766000</v>
+        <v>-108.76600000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>35398.319924</v>
+        <v>35398.319924000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.832867</v>
+        <v>9.8328670000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.423000</v>
+        <v>-124.423</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>35409.247285</v>
+        <v>35409.247284999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.835902</v>
+        <v>9.8359020000000008</v>
       </c>
       <c r="BF21" s="1">
-        <v>1042.730000</v>
+        <v>1042.73</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.429000</v>
+        <v>-196.429</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>35420.677629</v>
+        <v>35420.677628999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.839077</v>
+        <v>9.8390769999999996</v>
       </c>
       <c r="BK21" s="1">
-        <v>1108.900000</v>
+        <v>1108.9000000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.758000</v>
+        <v>-313.75799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>35431.564807</v>
+        <v>35431.564807000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.842101</v>
+        <v>9.8421009999999995</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-499.181000</v>
+        <v>-499.18099999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>35442.163327</v>
+        <v>35442.163327000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.845045</v>
+        <v>9.8450450000000007</v>
       </c>
       <c r="BU21" s="1">
-        <v>1338.570000</v>
+        <v>1338.57</v>
       </c>
       <c r="BV21" s="1">
-        <v>-702.653000</v>
+        <v>-702.65300000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>35453.136815</v>
+        <v>35453.136814999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.848094</v>
+        <v>9.8480939999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1475.160000</v>
+        <v>1475.16</v>
       </c>
       <c r="CA21" s="1">
-        <v>-920.256000</v>
+        <v>-920.25599999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>35466.082363</v>
+        <v>35466.082363000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.851690</v>
+        <v>9.8516899999999996</v>
       </c>
       <c r="CE21" s="1">
-        <v>1834.190000</v>
+        <v>1834.19</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1438.100000</v>
+        <v>-1438.1</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>35294.179901</v>
+        <v>35294.179901000003</v>
       </c>
       <c r="B22" s="1">
-        <v>9.803939</v>
+        <v>9.8039389999999997</v>
       </c>
       <c r="C22" s="1">
-        <v>903.408000</v>
+        <v>903.40800000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.756000</v>
+        <v>-202.756</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>35304.297791</v>
+        <v>35304.297790999997</v>
       </c>
       <c r="G22" s="1">
-        <v>9.806749</v>
+        <v>9.8067489999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>922.059000</v>
+        <v>922.05899999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-170.752000</v>
+        <v>-170.75200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>35314.500995</v>
+        <v>35314.500995000002</v>
       </c>
       <c r="L22" s="1">
-        <v>9.809584</v>
+        <v>9.8095839999999992</v>
       </c>
       <c r="M22" s="1">
-        <v>945.741000</v>
+        <v>945.74099999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.034000</v>
+        <v>-121.03400000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>35324.383781</v>
+        <v>35324.383780999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.812329</v>
+        <v>9.8123290000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>952.699000</v>
+        <v>952.69899999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.586000</v>
+        <v>-104.586</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>35334.846391</v>
+        <v>35334.846390999999</v>
       </c>
       <c r="V22" s="1">
-        <v>9.815235</v>
+        <v>9.8152349999999995</v>
       </c>
       <c r="W22" s="1">
-        <v>959.364000</v>
+        <v>959.36400000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.259400</v>
+        <v>-89.259399999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>35345.319449</v>
+        <v>35345.319449000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.818144</v>
+        <v>9.8181440000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.544000</v>
+        <v>966.54399999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.333600</v>
+        <v>-77.333600000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>35355.848987</v>
+        <v>35355.848986999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.821069</v>
+        <v>9.8210689999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.180000</v>
+        <v>971.18</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.017600</v>
+        <v>-75.017600000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>35366.395454</v>
+        <v>35366.395453999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.823999</v>
+        <v>9.8239990000000006</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.294000</v>
+        <v>978.29399999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.605800</v>
+        <v>-79.605800000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>35376.897745</v>
+        <v>35376.897745000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.826916</v>
+        <v>9.8269160000000007</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.319000</v>
+        <v>986.31899999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.169800</v>
+        <v>-91.169799999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>35387.684209</v>
+        <v>35387.684208999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.829912</v>
+        <v>9.8299120000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.131000</v>
+        <v>996.13099999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.746000</v>
+        <v>-108.746</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>35398.680515</v>
@@ -5771,1133 +6187,1134 @@
         <v>9.832967</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.415000</v>
+        <v>-124.41500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>35409.609860</v>
+        <v>35409.609859999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.836003</v>
+        <v>9.8360029999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1042.680000</v>
+        <v>1042.68</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.430000</v>
+        <v>-196.43</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>35421.053558</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.839182</v>
+        <v>9.8391819999999992</v>
       </c>
       <c r="BK22" s="1">
-        <v>1108.910000</v>
+        <v>1108.9100000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.756000</v>
+        <v>-313.75599999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>35431.986376</v>
+        <v>35431.986376000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.842218</v>
+        <v>9.8422180000000008</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-499.202000</v>
+        <v>-499.202</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>35442.597321</v>
+        <v>35442.597321000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.845166</v>
+        <v>9.8451660000000007</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.610000</v>
+        <v>1338.61</v>
       </c>
       <c r="BV22" s="1">
-        <v>-702.701000</v>
+        <v>-702.70100000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>35453.554906</v>
+        <v>35453.554905999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.848210</v>
+        <v>9.8482099999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1475.090000</v>
+        <v>1475.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-920.393000</v>
+        <v>-920.39300000000003</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>35466.625481</v>
+        <v>35466.625481000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.851840</v>
+        <v>9.8518399999999993</v>
       </c>
       <c r="CE22" s="1">
-        <v>1834.880000</v>
+        <v>1834.88</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1436.640000</v>
+        <v>-1436.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>35294.567277</v>
+        <v>35294.567277000002</v>
       </c>
       <c r="B23" s="1">
-        <v>9.804046</v>
+        <v>9.8040459999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>903.451000</v>
+        <v>903.45100000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.976000</v>
+        <v>-202.976</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>35304.642547</v>
+        <v>35304.642547000003</v>
       </c>
       <c r="G23" s="1">
-        <v>9.806845</v>
+        <v>9.8068449999999991</v>
       </c>
       <c r="H23" s="1">
-        <v>922.361000</v>
+        <v>922.36099999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.158000</v>
+        <v>-171.15799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>35314.843735</v>
+        <v>35314.843735000002</v>
       </c>
       <c r="L23" s="1">
-        <v>9.809679</v>
+        <v>9.8096789999999991</v>
       </c>
       <c r="M23" s="1">
-        <v>945.918000</v>
+        <v>945.91800000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.184000</v>
+        <v>-121.184</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>35324.734003</v>
+        <v>35324.734002999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.812426</v>
+        <v>9.8124260000000003</v>
       </c>
       <c r="R23" s="1">
-        <v>952.729000</v>
+        <v>952.72900000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.591000</v>
+        <v>-104.59099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>35335.196072</v>
+        <v>35335.196071999999</v>
       </c>
       <c r="V23" s="1">
-        <v>9.815332</v>
+        <v>9.8153319999999997</v>
       </c>
       <c r="W23" s="1">
-        <v>959.333000</v>
+        <v>959.33299999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.239500</v>
+        <v>-89.239500000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>35345.732125</v>
+        <v>35345.732125000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.818259</v>
+        <v>9.8182589999999994</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.440000</v>
+        <v>966.44</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.441800</v>
+        <v>-77.441800000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>35356.137163</v>
+        <v>35356.137162999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.821149</v>
+        <v>9.8211490000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.144000</v>
+        <v>971.14400000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.038700</v>
+        <v>-75.038700000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>35366.675167</v>
+        <v>35366.675167000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.824076</v>
+        <v>9.8240759999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.293000</v>
+        <v>978.29300000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.607500</v>
+        <v>-79.607500000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>35377.261776</v>
+        <v>35377.261775999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.827017</v>
+        <v>9.8270169999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.341000</v>
+        <v>986.34100000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.169300</v>
+        <v>-91.169300000000007</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>35388.046822</v>
+        <v>35388.046821999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.830013</v>
+        <v>9.8300129999999992</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.123000</v>
+        <v>996.12300000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.764000</v>
+        <v>-108.764</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>35399.037671</v>
+        <v>35399.037670999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.833066</v>
+        <v>9.8330660000000005</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.410000</v>
+        <v>-124.41</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>35410.330087</v>
+        <v>35410.330087000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.836203</v>
+        <v>9.8362029999999994</v>
       </c>
       <c r="BF23" s="1">
-        <v>1042.730000</v>
+        <v>1042.73</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.455000</v>
+        <v>-196.45500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>35421.803540</v>
+        <v>35421.803540000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.839390</v>
+        <v>9.8393899999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1108.930000</v>
+        <v>1108.93</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.748000</v>
+        <v>-313.74799999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>35432.382678</v>
+        <v>35432.382678000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.842329</v>
+        <v>9.8423289999999994</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.830000</v>
+        <v>1216.83</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-499.222000</v>
+        <v>-499.22199999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>35443.023353</v>
+        <v>35443.023352999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.845284</v>
+        <v>9.8452839999999995</v>
       </c>
       <c r="BU23" s="1">
-        <v>1338.710000</v>
+        <v>1338.71</v>
       </c>
       <c r="BV23" s="1">
-        <v>-702.705000</v>
+        <v>-702.70500000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>35454.006762</v>
+        <v>35454.006761999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.848335</v>
+        <v>9.8483350000000005</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1475.130000</v>
+        <v>1475.13</v>
       </c>
       <c r="CA23" s="1">
-        <v>-920.396000</v>
+        <v>-920.39599999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>35467.464248</v>
+        <v>35467.464247999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.852073</v>
+        <v>9.8520730000000007</v>
       </c>
       <c r="CE23" s="1">
-        <v>1834.510000</v>
+        <v>1834.51</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1438.020000</v>
+        <v>-1438.02</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>35294.910509</v>
+        <v>35294.910509000001</v>
       </c>
       <c r="B24" s="1">
-        <v>9.804142</v>
+        <v>9.8041420000000006</v>
       </c>
       <c r="C24" s="1">
-        <v>903.470000</v>
+        <v>903.47</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.756000</v>
+        <v>-202.756</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>35304.988719</v>
+        <v>35304.988719000001</v>
       </c>
       <c r="G24" s="1">
-        <v>9.806941</v>
+        <v>9.8069410000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>922.716000</v>
+        <v>922.71600000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.996000</v>
+        <v>-170.99600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>35315.188982</v>
       </c>
       <c r="L24" s="1">
-        <v>9.809775</v>
+        <v>9.8097750000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>945.898000</v>
+        <v>945.89800000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.101000</v>
+        <v>-121.101</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>35325.164484</v>
+        <v>35325.164484000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.812546</v>
+        <v>9.8125459999999993</v>
       </c>
       <c r="R24" s="1">
-        <v>952.749000</v>
+        <v>952.74900000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.614000</v>
+        <v>-104.614</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>35335.621142</v>
+        <v>35335.621142000004</v>
       </c>
       <c r="V24" s="1">
-        <v>9.815450</v>
+        <v>9.8154500000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>959.397000</v>
+        <v>959.39700000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.269200</v>
+        <v>-89.269199999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>35346.024755</v>
+        <v>35346.024754999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.818340</v>
+        <v>9.8183399999999992</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.418000</v>
+        <v>966.41800000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.395500</v>
+        <v>-77.395499999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>35356.481388</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.821245</v>
+        <v>9.8212449999999993</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.146000</v>
+        <v>971.14599999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.032000</v>
+        <v>-75.031999999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>35367.023356</v>
+        <v>35367.023355999998</v>
       </c>
       <c r="AK24" s="1">
         <v>9.824173</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.296000</v>
+        <v>978.29600000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.598000</v>
+        <v>-79.597999999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>35377.617408</v>
+        <v>35377.617407999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.827116</v>
+        <v>9.8271160000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.338000</v>
+        <v>986.33799999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.163300</v>
+        <v>-91.163300000000007</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>35388.782387</v>
+        <v>35388.782386999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.830217</v>
+        <v>9.8302169999999993</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.154000</v>
+        <v>996.154</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.753000</v>
+        <v>-108.753</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>35399.752866</v>
+        <v>35399.752866000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.833265</v>
+        <v>9.8332650000000008</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.414000</v>
+        <v>-124.414</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>35410.689186</v>
+        <v>35410.689186000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.836303</v>
+        <v>9.8363029999999991</v>
       </c>
       <c r="BF24" s="1">
-        <v>1042.690000</v>
+        <v>1042.69</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.466000</v>
+        <v>-196.46600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>35422.178981</v>
+        <v>35422.178980999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.839494</v>
+        <v>9.8394940000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1108.900000</v>
+        <v>1108.9000000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.780000</v>
+        <v>-313.77999999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>35432.804310</v>
+        <v>35432.80431</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.842446</v>
+        <v>9.8424460000000007</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-499.181000</v>
+        <v>-499.18099999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>35443.743080</v>
+        <v>35443.74308</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.845484</v>
+        <v>9.8454840000000008</v>
       </c>
       <c r="BU24" s="1">
-        <v>1338.760000</v>
+        <v>1338.76</v>
       </c>
       <c r="BV24" s="1">
-        <v>-702.753000</v>
+        <v>-702.75300000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>35454.739850</v>
+        <v>35454.739849999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.848539</v>
+        <v>9.8485390000000006</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1475.150000</v>
+        <v>1475.15</v>
       </c>
       <c r="CA24" s="1">
-        <v>-920.385000</v>
+        <v>-920.38499999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>35467.703287</v>
+        <v>35467.703286999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.852140</v>
+        <v>9.8521400000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>1834.460000</v>
+        <v>1834.46</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1438.270000</v>
+        <v>-1438.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>35295.251790</v>
+        <v>35295.251790000002</v>
       </c>
       <c r="B25" s="1">
-        <v>9.804237</v>
+        <v>9.8042370000000005</v>
       </c>
       <c r="C25" s="1">
-        <v>903.310000</v>
+        <v>903.31</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.950000</v>
+        <v>-202.95</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>35305.411806</v>
+        <v>35305.411805999996</v>
       </c>
       <c r="G25" s="1">
-        <v>9.807059</v>
+        <v>9.8070590000000006</v>
       </c>
       <c r="H25" s="1">
-        <v>921.798000</v>
+        <v>921.798</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.318000</v>
+        <v>-171.31800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>35315.610544</v>
+        <v>35315.610544000003</v>
       </c>
       <c r="L25" s="1">
-        <v>9.809892</v>
+        <v>9.8098919999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>945.868000</v>
+        <v>945.86800000000005</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.081000</v>
+        <v>-121.081</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>35325.443268</v>
+        <v>35325.443268000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.812623</v>
+        <v>9.8126230000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>952.785000</v>
+        <v>952.78499999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.639000</v>
+        <v>-104.639</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>35335.897448</v>
+        <v>35335.897448000003</v>
       </c>
       <c r="V25" s="1">
-        <v>9.815527</v>
+        <v>9.8155269999999994</v>
       </c>
       <c r="W25" s="1">
-        <v>959.293000</v>
+        <v>959.29300000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.220300</v>
+        <v>-89.220299999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>35346.373448</v>
+        <v>35346.373447999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.818437</v>
+        <v>9.8184369999999994</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.395000</v>
+        <v>966.39499999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.324900</v>
+        <v>-77.3249</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>35356.825114</v>
+        <v>35356.825113999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.821340</v>
+        <v>9.8213399999999993</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.142000</v>
+        <v>971.14200000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.013000</v>
+        <v>-75.013000000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>35367.373532</v>
+        <v>35367.373531999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.824270</v>
+        <v>9.8242700000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.319000</v>
+        <v>978.31899999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.606200</v>
+        <v>-79.606200000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>35378.349503</v>
+        <v>35378.349502999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.827319</v>
+        <v>9.8273189999999992</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.341000</v>
+        <v>986.34100000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.176700</v>
+        <v>-91.176699999999997</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>35389.164802</v>
+        <v>35389.164801999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.830324</v>
+        <v>9.8303239999999992</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.126000</v>
+        <v>996.12599999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.755000</v>
+        <v>-108.755</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>35400.113495</v>
+        <v>35400.113494999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.833365</v>
+        <v>9.8333650000000006</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.423000</v>
+        <v>-124.423</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>35411.050740</v>
+        <v>35411.050739999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.836403</v>
+        <v>9.8364030000000007</v>
       </c>
       <c r="BF25" s="1">
-        <v>1042.710000</v>
+        <v>1042.71</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.434000</v>
+        <v>-196.434</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>35422.867427</v>
+        <v>35422.867426999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.839685</v>
+        <v>9.8396849999999993</v>
       </c>
       <c r="BK25" s="1">
-        <v>1108.900000</v>
+        <v>1108.9000000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.754000</v>
+        <v>-313.75400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>35433.500662</v>
+        <v>35433.500661999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.842639</v>
+        <v>9.8426390000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-499.215000</v>
+        <v>-499.21499999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>35443.867544</v>
+        <v>35443.867544000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.845519</v>
+        <v>9.8455189999999995</v>
       </c>
       <c r="BU25" s="1">
-        <v>1338.750000</v>
+        <v>1338.75</v>
       </c>
       <c r="BV25" s="1">
-        <v>-702.761000</v>
+        <v>-702.76099999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>35454.866824</v>
+        <v>35454.866823999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.848574</v>
+        <v>9.8485739999999993</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1475.100000</v>
+        <v>1475.1</v>
       </c>
       <c r="CA25" s="1">
-        <v>-920.340000</v>
+        <v>-920.34</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>35468.222103</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.852284</v>
+        <v>9.8522839999999992</v>
       </c>
       <c r="CE25" s="1">
-        <v>1835.090000</v>
+        <v>1835.09</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1437.080000</v>
+        <v>-1437.08</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>35295.672364</v>
+        <v>35295.672363999998</v>
       </c>
       <c r="B26" s="1">
-        <v>9.804353</v>
+        <v>9.8043530000000008</v>
       </c>
       <c r="C26" s="1">
-        <v>903.527000</v>
+        <v>903.52700000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.556000</v>
+        <v>-202.55600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>35305.691053</v>
+        <v>35305.691053000002</v>
       </c>
       <c r="G26" s="1">
-        <v>9.807136</v>
+        <v>9.8071359999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>921.922000</v>
+        <v>921.92200000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.852000</v>
+        <v>-170.852</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>35315.897232</v>
+        <v>35315.897232000003</v>
       </c>
       <c r="L26" s="1">
-        <v>9.809971</v>
+        <v>9.8099710000000009</v>
       </c>
       <c r="M26" s="1">
-        <v>945.801000</v>
+        <v>945.80100000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.240000</v>
+        <v>-121.24</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>35325.788483</v>
+        <v>35325.788482999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.812719</v>
+        <v>9.8127189999999995</v>
       </c>
       <c r="R26" s="1">
-        <v>952.729000</v>
+        <v>952.72900000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.616000</v>
+        <v>-104.616</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>35336.282309</v>
+        <v>35336.282309000002</v>
       </c>
       <c r="V26" s="1">
-        <v>9.815634</v>
+        <v>9.8156339999999993</v>
       </c>
       <c r="W26" s="1">
-        <v>959.315000</v>
+        <v>959.31500000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.288400</v>
+        <v>-89.288399999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>35346.723127</v>
+        <v>35346.723126999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.818534</v>
+        <v>9.8185339999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.456000</v>
+        <v>966.45600000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.462800</v>
+        <v>-77.462800000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>35357.513065</v>
+        <v>35357.513064999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.821531</v>
+        <v>9.8215310000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.162000</v>
+        <v>971.16200000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.031100</v>
+        <v>-75.031099999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>35368.069915</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.824464</v>
+        <v>9.8244640000000008</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.311000</v>
+        <v>978.31100000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.599600</v>
+        <v>-79.599599999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>35378.725009</v>
+        <v>35378.725009000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.827424</v>
+        <v>9.8274240000000006</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.363000</v>
+        <v>986.36300000000006</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.186100</v>
+        <v>-91.186099999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>35389.529823</v>
+        <v>35389.529822999997</v>
       </c>
       <c r="AU26" s="1">
         <v>9.830425</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.127000</v>
+        <v>996.12699999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.765000</v>
+        <v>-108.765</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>35400.472097</v>
+        <v>35400.472096999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.833464</v>
+        <v>9.8334639999999993</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.422000</v>
+        <v>-124.422</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>35411.730259</v>
+        <v>35411.730259000004</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.836592</v>
+        <v>9.8365919999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1042.740000</v>
+        <v>1042.74</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.464000</v>
+        <v>-196.464</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>35423.304898</v>
+        <v>35423.304898000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.839807</v>
+        <v>9.8398070000000004</v>
       </c>
       <c r="BK26" s="1">
-        <v>1108.960000</v>
+        <v>1108.96</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.767000</v>
+        <v>-313.767</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>35433.620728</v>
+        <v>35433.620728000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.842672</v>
+        <v>9.8426720000000003</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-499.177000</v>
+        <v>-499.17700000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>35444.305540</v>
+        <v>35444.305540000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.845640</v>
+        <v>9.8456399999999995</v>
       </c>
       <c r="BU26" s="1">
-        <v>1338.810000</v>
+        <v>1338.81</v>
       </c>
       <c r="BV26" s="1">
-        <v>-702.807000</v>
+        <v>-702.80700000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>35455.284952</v>
+        <v>35455.284952000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.848690</v>
+        <v>9.8486899999999995</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1475.100000</v>
+        <v>1475.1</v>
       </c>
       <c r="CA26" s="1">
-        <v>-920.444000</v>
+        <v>-920.44399999999996</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>35468.740918</v>
+        <v>35468.740918000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.852428</v>
+        <v>9.8524279999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>1835.130000</v>
+        <v>1835.13</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1437.570000</v>
+        <v>-1437.57</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>